--- a/users.xlsx
+++ b/users.xlsx
@@ -1,38 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Full Stack Training By Rony Rizk\Web0\5th session\exercise\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086631DA-44AA-4A1C-8BA1-D94A9EDAD5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>email</t>
+  </si>
   <si>
     <t>password</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>jawd@gmail.com</t>
   </si>
   <si>
@@ -43,27 +32,33 @@
   </si>
   <si>
     <t>theprogressclick@gmail.com</t>
+  </si>
+  <si>
+    <t>ghayq</t>
+  </si>
+  <si>
+    <t>12345ll</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,16 +78,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -370,28 +363,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -399,7 +392,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -407,7 +400,7 @@
         <v>5678</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -415,7 +408,7 @@
         <v>6119</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -423,12 +416,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{DF9019AF-0C7F-4A0C-B26E-7ADAB339E4A9}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{29AD5BCC-C8F3-4E99-A17F-21A415B9B424}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{C9D56CAF-D2C4-49A1-90C7-6ABBB3D0E8A2}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{321819D2-9027-43AA-AA29-8A0908AB8B69}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
